--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_023.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_023.xlsx
@@ -31,327 +31,330 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295025EK2.06) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295001AA1.11) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295026EK2.04) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
+  </si>
+  <si>
+    <t>(295001AA1.04) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(295037EK2.13) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Systems used for alternate boron injection</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
   </si>
   <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AA1.02) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) RHR/shutdown cooling</t>
-  </si>
-  <si>
-    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
-  </si>
-  <si>
-    <t>(295005AK2.11) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
-  </si>
-  <si>
-    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295008AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Moisture carryover</t>
-  </si>
-  <si>
-    <t>(295022AK2.09) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) NBI</t>
-  </si>
-  <si>
-    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
-  </si>
-  <si>
-    <t>(500000EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Operation of drywell recirculating fans</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295035EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(264000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
-  </si>
-  <si>
-    <t>(510000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of ultimate heat sink</t>
-  </si>
-  <si>
-    <t>(223002K4.03) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual initiation capability</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000A2.15) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High area radiation by refuel bridge</t>
-  </si>
-  <si>
-    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
-  </si>
-  <si>
-    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
-  </si>
-  <si>
-    <t>(262002K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(203000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Motor amps</t>
-  </si>
-  <si>
-    <t>(209001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295016AA1.01) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) RPS </t>
+  </si>
+  <si>
+    <t>(295026EK2.09) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
+  </si>
+  <si>
+    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
+  </si>
+  <si>
+    <t>(295025EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295030EK2.10) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295019AK2.03) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
+  </si>
+  <si>
+    <t>(295031EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure core spray</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295012AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.8 to 41.10) Drywell pressure </t>
+  </si>
+  <si>
+    <t>(295017AA2.03) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295022AA1.04) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295033EK2.09) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required to protect the containment</t>
+  </si>
+  <si>
+    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
+  </si>
+  <si>
+    <t>(259002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Controller operation</t>
+  </si>
+  <si>
+    <t>(262001K3.01) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant AC loads</t>
+  </si>
+  <si>
+    <t>(223002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(217000A2.10) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine control system failures</t>
+  </si>
+  <si>
+    <t>(209002K4.11) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of piping overpressurization</t>
+  </si>
+  <si>
+    <t>(215004K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(261000K2.02) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system motor-operated valves/dampers</t>
+  </si>
+  <si>
+    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215005A4.03) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) APRM back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(218000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Primary containment/drywell pressure</t>
+  </si>
+  <si>
+    <t>(205000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(203000A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(510000K4.07) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Discharge strainer backwashing</t>
+  </si>
+  <si>
+    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
   </si>
   <si>
     <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
   </si>
   <si>
-    <t>(400000A3.06) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System response due to a LOOP signal</t>
-  </si>
-  <si>
-    <t>(262001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Emergency generators</t>
-  </si>
-  <si>
-    <t>(205000K4.01) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High temperature isolation /protection</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291006K1.16) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of scaling on heat exchanger operation</t>
-  </si>
-  <si>
-    <t>(209002A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condensate storage tank level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215004A4.02) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS recorder </t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(215003K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(239002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Pneumatic supply</t>
-  </si>
-  <si>
-    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
-  </si>
-  <si>
-    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(510000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Leakage to/from contaminated system</t>
-  </si>
-  <si>
-    <t>(241000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(219000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Containment air temperature: Mark III</t>
-  </si>
-  <si>
-    <t>(230000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCI/RHR system</t>
-  </si>
-  <si>
-    <t>(245000K2.02) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Lube oil pumps</t>
-  </si>
-  <si>
-    <t>(239003A3.01) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) System logic initiation</t>
-  </si>
-  <si>
-    <t>(290003K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(256000K4.05) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining 100-percent system flow if a feedwater string isolates</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201005A4.05) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypassing a rod drive in rod gang drive system </t>
-  </si>
-  <si>
-    <t>(226001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(400000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW flow rate</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291002K1.04) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Modes of failure</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(259002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Pump runout</t>
+  </si>
+  <si>
+    <t>(262001K3.05) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Qualified offsite power sources</t>
+  </si>
+  <si>
+    <t>(223002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(268000A4.01) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Sump integrators</t>
+  </si>
+  <si>
+    <t>(216000K1.22) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(290001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Building delta pressure control</t>
+  </si>
+  <si>
+    <t>(290003K3.04) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room pressure</t>
+  </si>
+  <si>
+    <t>(234000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Electrical power</t>
+  </si>
+  <si>
+    <t>(226001A2.06) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC electrical failures</t>
+  </si>
+  <si>
+    <t>(271000K4.07) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maximizing charcoal bed efficiency</t>
+  </si>
+  <si>
+    <t>(219000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
+  </si>
+  <si>
+    <t>(202002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
   </si>
   <si>
     <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.07) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Xenon following a SCRAM</t>
-  </si>
-  <si>
-    <t>(292008K1.03) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Describe count rate and instrument response that should be observed for rod withdrawal during the approach to criticality</t>
-  </si>
-  <si>
-    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
-  </si>
-  <si>
-    <t>(293006K1.05) FLUID STATICS AND DYNAMICS (CFR: 41.14) Explain operational implications of fluid/water hammer</t>
-  </si>
-  <si>
-    <t>(293008K1.36) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe means by which the operator can determine if natural circulation flow exists</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber air-space temperature</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295010AA2.04) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005A2.10) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Changes in void concentration</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(217000A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil cooling</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002A2.10) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High primary containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
+  </si>
+  <si>
+    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(293006K1.07) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) State the purpose of a pump</t>
+  </si>
+  <si>
+    <t>(293008K1.25) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the reason for forced core recirculation</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209002A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(261000A2.13) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High secondary containment ventilation exhaust radiation</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(245000A2.07) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of reactor/turbine regulating control system</t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239003A2.12) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) MSIV failure to close</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
@@ -361,9 +364,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295025</t>
+    <t>295023</t>
   </si>
   <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295026</t>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295021</t>
   </si>
   <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295036</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
     <t>245000</t>
   </si>
   <si>
+    <t>201001</t>
+  </si>
+  <si>
     <t>239003</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>239001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1463,7 +1463,7 @@
         <v>4.1</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
         <v>110</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>4.1</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1973,7 +1973,7 @@
         <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D62" t="s">
         <v>110</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>3.4</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2415,7 +2415,7 @@
         <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2534,7 +2534,7 @@
         <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
